--- a/ThuThuyArtifact/DataObjects/DataExcel/data.xlsx
+++ b/ThuThuyArtifact/DataObjects/DataExcel/data.xlsx
@@ -4,23 +4,893 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="18195" windowHeight="9030"/>
+    <workbookView xWindow="0" yWindow="1125" windowWidth="14025" windowHeight="3180" tabRatio="764" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="loginSuccessfull" sheetId="1" r:id="rId1"/>
+    <sheet name="loginUnsuccessfull" sheetId="2" r:id="rId2"/>
+    <sheet name="pageDisplay" sheetId="3" r:id="rId3"/>
+    <sheet name="productData" sheetId="4" r:id="rId4"/>
+    <sheet name="sendToFriendUnsuccessful" sheetId="9" r:id="rId5"/>
+    <sheet name="sendToFriendSuccessful" sheetId="10" r:id="rId6"/>
+    <sheet name="createAccountWithInvalidEmail" sheetId="5" r:id="rId7"/>
+    <sheet name="createAccountWithInvalidInfo" sheetId="6" r:id="rId8"/>
+    <sheet name="createAccountWithValidInfo" sheetId="21" r:id="rId9"/>
+    <sheet name="contactUsSuccessful" sheetId="7" r:id="rId10"/>
+    <sheet name="contactUsUnsuccessful" sheetId="8" r:id="rId11"/>
+    <sheet name="paymentDataSuccessful" sheetId="11" r:id="rId12"/>
+    <sheet name="reviewSuccessful" sheetId="12" r:id="rId13"/>
+    <sheet name="reviewUnsuccessful" sheetId="13" r:id="rId14"/>
+    <sheet name="cartDataHomePage" sheetId="14" r:id="rId15"/>
+    <sheet name="cartDataQuickView" sheetId="15" r:id="rId16"/>
+    <sheet name="cartDataProductDetails" sheetId="16" r:id="rId17"/>
+    <sheet name="searchValid" sheetId="20" r:id="rId18"/>
+    <sheet name="searchInvalid" sheetId="17" r:id="rId19"/>
+    <sheet name="wishListData" sheetId="18" r:id="rId20"/>
+    <sheet name="cartQuanlity" sheetId="19" r:id="rId21"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="277">
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>123456a@</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Username </t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>An email address required.</t>
+  </si>
+  <si>
+    <t>Error Message</t>
+  </si>
+  <si>
+    <t>Password is required.</t>
+  </si>
+  <si>
+    <t>Page Name</t>
+  </si>
+  <si>
+    <t>WOMEN</t>
+  </si>
+  <si>
+    <t>DRESSES</t>
+  </si>
+  <si>
+    <t>T-SHIRTS</t>
+  </si>
+  <si>
+    <t>Product name</t>
+  </si>
+  <si>
+    <t>Faded Short Sleeve T-shirts</t>
+  </si>
+  <si>
+    <t>Blouse</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Invalid email address.</t>
+  </si>
+  <si>
+    <t>An account using this email address has already been registered. Please enter a valid password or request a new one.</t>
+  </si>
+  <si>
+    <t>nghiemthuthuy1912@gmail.com</t>
+  </si>
+  <si>
+    <t>abc@abc@abc@abc.com</t>
+  </si>
+  <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Post Code</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Mobiphone</t>
+  </si>
+  <si>
+    <t>Allias</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>No1 Florida Building</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>firstname is required.</t>
+  </si>
+  <si>
+    <t>lastname is required.</t>
+  </si>
+  <si>
+    <t>passwd is required.</t>
+  </si>
+  <si>
+    <t>address1 is required.</t>
+  </si>
+  <si>
+    <t>city is required.</t>
+  </si>
+  <si>
+    <t>The Zip/Postal code you've entered is invalid. It must follow this format: 00000</t>
+  </si>
+  <si>
+    <t>This country requires you to choose a State.</t>
+  </si>
+  <si>
+    <t>You must register at least one phone number.</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>90909090</t>
+  </si>
+  <si>
+    <t>97000</t>
+  </si>
+  <si>
+    <t>V123456789</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>OderRef</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>Your message has been successfully sent to our team.</t>
+  </si>
+  <si>
+    <t>Customer service</t>
+  </si>
+  <si>
+    <t>Webmaster</t>
+  </si>
+  <si>
+    <t>admin@gmail.com</t>
+  </si>
+  <si>
+    <t>nothings</t>
+  </si>
+  <si>
+    <t>Please select a subject from the list provided.</t>
+  </si>
+  <si>
+    <t>The message cannot be blank.</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>You did not fill required fields</t>
+  </si>
+  <si>
+    <t>Your e-mail has been sent successfully</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>PaymentBy</t>
+  </si>
+  <si>
+    <t>Bankwire</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>Test Case Name</t>
+  </si>
+  <si>
+    <t>vtc@vtc.vn</t>
+  </si>
+  <si>
+    <t>n.gh.i.e.m.th.u.th.uy.19.12@gmail.com</t>
+  </si>
+  <si>
+    <t>!@#$%^&amp;*()</t>
+  </si>
+  <si>
+    <t>thuy_nghiem@c.tv_vn.com</t>
+  </si>
+  <si>
+    <t>Verify user can log in with normal account</t>
+  </si>
+  <si>
+    <t>Verify user can log in with valid gmail domain</t>
+  </si>
+  <si>
+    <t>Verify user can log in with special char account</t>
+  </si>
+  <si>
+    <t>vc!xvc@vc.com</t>
+  </si>
+  <si>
+    <t>Verify user can log in with special char on domain account</t>
+  </si>
+  <si>
+    <t>Verify user can log in with privated email domain</t>
+  </si>
+  <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>Verify user can't log in empty account</t>
+  </si>
+  <si>
+    <t>Verify user can't log in with invalid password</t>
+  </si>
+  <si>
+    <t>n.gh.i.e.m.th.u.th.uy.19.12</t>
+  </si>
+  <si>
+    <t>Verify user can't log in with invalid email format</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>1=1</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Verify user can't log in with special SQL injection2</t>
+  </si>
+  <si>
+    <t>Verify user can't log in with special SQL injection1</t>
+  </si>
+  <si>
+    <t>Verify WOMEN store page display after clicked on WOMEN categories</t>
+  </si>
+  <si>
+    <t>Verify DRESSES store page display after clicked on DRESSES categories</t>
+  </si>
+  <si>
+    <t>Verify T-SHIRTS store page display after clicked on T-SHIRTS categories</t>
+  </si>
+  <si>
+    <t>Printed Dress</t>
+  </si>
+  <si>
+    <t>Printed Summer Dress</t>
+  </si>
+  <si>
+    <t>Printed Chiffon Dress</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Veridy user can payment with Faded Short Sleeve T-shirts product successful</t>
+  </si>
+  <si>
+    <t>Veridy user can payment with Blouse product successful</t>
+  </si>
+  <si>
+    <t>Veridy user can payment with Printed Dress product successful</t>
+  </si>
+  <si>
+    <t>Veridy user can payment with Printed Summer Dressproduct successful</t>
+  </si>
+  <si>
+    <t>Veridy user can payment with Printed Summer Dress product successful</t>
+  </si>
+  <si>
+    <t>Veridy user can payment with Printed Chiffon Dress product successful</t>
+  </si>
+  <si>
+    <t>Verify Product Details "Faded Short Sleeve T-shirts" page is displayed right selected product.</t>
+  </si>
+  <si>
+    <t>Verify Product Details "Blouse" page is displayed right selected product.</t>
+  </si>
+  <si>
+    <t>Verify Product Details "Printed Dress" page is displayed right selected product.</t>
+  </si>
+  <si>
+    <t>Verify Product Details "Printed Summer Dress" page is displayed right selected product.</t>
+  </si>
+  <si>
+    <t>Verify Product Details "Printed Chiffon Dress" page is displayed right selected product.</t>
+  </si>
+  <si>
+    <t>chuong.nguyen</t>
+  </si>
+  <si>
+    <t>thuy_nghiem</t>
+  </si>
+  <si>
+    <t>hand!some</t>
+  </si>
+  <si>
+    <t>anhyeuem*</t>
+  </si>
+  <si>
+    <t>Verify user can send a product details to friend by email with normal information</t>
+  </si>
+  <si>
+    <t>Verify user can send a product details to friend by email with privated email domain</t>
+  </si>
+  <si>
+    <t>Verify user can send a product details to friend by email with valid gmail domain</t>
+  </si>
+  <si>
+    <t>Verify user can send a product details to friend by email with special char on domain account</t>
+  </si>
+  <si>
+    <t>Verify user can send a product details to friend by email with special char account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>123123123</t>
+  </si>
+  <si>
+    <t>Verify user can send a product details to friend by email with invalid name</t>
+  </si>
+  <si>
+    <t>Verify user can send a product details to friend by email with invalid email domain</t>
+  </si>
+  <si>
+    <t>Verify user can send a product details to friend by email with empty email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify user can send a product details to friend by email with all empty  require field </t>
+  </si>
+  <si>
+    <t>Verify user can send a product details to friend by email with long name</t>
+  </si>
+  <si>
+    <t>Verify user can send a product details to friend by email with long email</t>
+  </si>
+  <si>
+    <t>aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
+  </si>
+  <si>
+    <t>aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
+  </si>
+  <si>
+    <t>adasdasdasdasdaaaaaaaaaasdaaaaaaaaaaaaaaaaaaaaaaaasdasdasdasdxvc@vc.com.cam.quyt</t>
+  </si>
+  <si>
+    <t>vtc@vtc.vn_.vn@vn</t>
+  </si>
+  <si>
+    <t>test Case</t>
+  </si>
+  <si>
+    <t>Test case</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Test Case</t>
+  </si>
+  <si>
+    <t>Verify user can't create account with empty email</t>
+  </si>
+  <si>
+    <t>Verify user can't create account with existed email</t>
+  </si>
+  <si>
+    <t>plainaddress</t>
+  </si>
+  <si>
+    <t>#@%^%#$@#$@#.com</t>
+  </si>
+  <si>
+    <t>@example.com</t>
+  </si>
+  <si>
+    <t>Joe Smith &lt;email@example.com&gt;</t>
+  </si>
+  <si>
+    <t>email.example.com</t>
+  </si>
+  <si>
+    <t>email@example@example.com</t>
+  </si>
+  <si>
+    <t>.email@example.com</t>
+  </si>
+  <si>
+    <t>email.@example.com</t>
+  </si>
+  <si>
+    <t>email..email@example.com</t>
+  </si>
+  <si>
+    <t>あいうえお@example.com</t>
+  </si>
+  <si>
+    <t>email@example.com (Joe Smith)</t>
+  </si>
+  <si>
+    <t>email@example</t>
+  </si>
+  <si>
+    <t>email@-example.com</t>
+  </si>
+  <si>
+    <t>email@example.web</t>
+  </si>
+  <si>
+    <t>email@111.222.333.44444</t>
+  </si>
+  <si>
+    <t>email@example..com</t>
+  </si>
+  <si>
+    <t>Abc..123@example.com</t>
+  </si>
+  <si>
+    <t>“(),:;&lt;&gt;[\]@example.com</t>
+  </si>
+  <si>
+    <t>just"not"right@example.com</t>
+  </si>
+  <si>
+    <t>this\ is"really"not\allowed@example.com</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Verify user can't create account with invalid email format1</t>
+  </si>
+  <si>
+    <t>Verify user can't create account with invalid email format2</t>
+  </si>
+  <si>
+    <t>Verify user can't create account with invalid email format3</t>
+  </si>
+  <si>
+    <t>Verify user can't create account with invalid email format4</t>
+  </si>
+  <si>
+    <t>Verify user can't create account with invalid email format5</t>
+  </si>
+  <si>
+    <t>Verify user can't create account with invalid email format6</t>
+  </si>
+  <si>
+    <t>Verify user can't create account with invalid email format7</t>
+  </si>
+  <si>
+    <t>Verify user can't create account with invalid email format8</t>
+  </si>
+  <si>
+    <t>Verify user can't create account with invalid email format9</t>
+  </si>
+  <si>
+    <t>Verify user can't create account with invalid email format10</t>
+  </si>
+  <si>
+    <t>Verify user can't create account with invalid email format11</t>
+  </si>
+  <si>
+    <t>Verify user can't create account with invalid email format12</t>
+  </si>
+  <si>
+    <t>Verify user can't create account with invalid email format13</t>
+  </si>
+  <si>
+    <t>Verify user can't create account with invalid email format14</t>
+  </si>
+  <si>
+    <t>Verify user can't create account with invalid email format15</t>
+  </si>
+  <si>
+    <t>Verify user can't create account with invalid email format16</t>
+  </si>
+  <si>
+    <t>Verify user can't create account with invalid email format17</t>
+  </si>
+  <si>
+    <t>Verify user can't create account with invalid email format18</t>
+  </si>
+  <si>
+    <t>Verify user can't create account with invalid email format19</t>
+  </si>
+  <si>
+    <t>Verify user can't create account with invalid email format20</t>
+  </si>
+  <si>
+    <t>Verify user can't create account with invalid email format21</t>
+  </si>
+  <si>
+    <t>Test Cases</t>
+  </si>
+  <si>
+    <t>Verify user can't create account with empty first name</t>
+  </si>
+  <si>
+    <t>Verify user can't create account with empty lastname</t>
+  </si>
+  <si>
+    <t>Verify user can't create account with empty password</t>
+  </si>
+  <si>
+    <t>Verify user can't create account with empty address</t>
+  </si>
+  <si>
+    <t>Verify user can't create account with empty city</t>
+  </si>
+  <si>
+    <t>Verify user can't create account with empty state</t>
+  </si>
+  <si>
+    <t>Verify user can't create account with empty phonenumber</t>
+  </si>
+  <si>
+    <t>Verify user can't create account with long first name</t>
+  </si>
+  <si>
+    <t>Verify user can't create account with long last name</t>
+  </si>
+  <si>
+    <t>aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
+  </si>
+  <si>
+    <t>1.231231231</t>
+  </si>
+  <si>
+    <t>firstname is too long. Maximum length: 32</t>
+  </si>
+  <si>
+    <t>lastname is too long. Maximum length: 32</t>
+  </si>
+  <si>
+    <t>passwd is too long. Maximum length: 32</t>
+  </si>
+  <si>
+    <t>Rank Start</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Nothings</t>
+  </si>
+  <si>
+    <t>*^HFDAS</t>
+  </si>
+  <si>
+    <t>thuynghiem@gmail.com</t>
+  </si>
+  <si>
+    <t>Verify user can add product to cart successful from home page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify user can add product to cart successful from product’s quickview popup </t>
+  </si>
+  <si>
+    <t>Verify user can add product to cart successful from product details page</t>
+  </si>
+  <si>
+    <t>Verify ERROR message will display with invalid search value</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Verify ERROR message will display with empty value</t>
+  </si>
+  <si>
+    <t>Please enter a search keyword</t>
+  </si>
+  <si>
+    <t>No results were found for your search</t>
+  </si>
+  <si>
+    <t>Veridy user can wishlist with Faded Short Sleeve T-shirts product successful</t>
+  </si>
+  <si>
+    <t>Veridy user can wishlist with Blouse product successful</t>
+  </si>
+  <si>
+    <t>Nghiem</t>
+  </si>
+  <si>
+    <t>Thuy</t>
+  </si>
+  <si>
+    <t>Verify user can't create account with empty zip code</t>
+  </si>
+  <si>
+    <t>Verify user can’t create account with firstname is numbers</t>
+  </si>
+  <si>
+    <t>Verify user can’t create account with lastname is number</t>
+  </si>
+  <si>
+    <t>Verify user can’t create account with firstname is special characters</t>
+  </si>
+  <si>
+    <t>Verify user can’t create account with lastname is special characters</t>
+  </si>
+  <si>
+    <t>Verify user can’t create account with firstname is spacing</t>
+  </si>
+  <si>
+    <t>Verify user can’t create account with lastname is spacing</t>
+  </si>
+  <si>
+    <t>Verify user can’t create account with zipcode is alphabets</t>
+  </si>
+  <si>
+    <t>Verify user can’t create account with zipcode is special characters</t>
+  </si>
+  <si>
+    <t>Verify user can’t create account with zipcode is spacing</t>
+  </si>
+  <si>
+    <t>Verify user can’t create account with zipcode is invalid</t>
+  </si>
+  <si>
+    <t>Verify user can’t create account with mobile phone is alphabets</t>
+  </si>
+  <si>
+    <t>Verify user can’t create account with mobile phone is special characters</t>
+  </si>
+  <si>
+    <t>Verify user can’t create account with mobile phone is spacing</t>
+  </si>
+  <si>
+    <t>Verify user can’t create account with mobile phone less than 10 numbers</t>
+  </si>
+  <si>
+    <t>Verify user can’t create account with mobile phone is more than 12 number</t>
+  </si>
+  <si>
+    <t>Verify user can’t create account with city is numbers</t>
+  </si>
+  <si>
+    <t>Verify user can’t create account with city is special characters</t>
+  </si>
+  <si>
+    <t>Verify user can’t create account with city is spacing</t>
+  </si>
+  <si>
+    <t>Verify user can’t create account with password less than 5 character</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>!@#$%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>!@#$</t>
+  </si>
+  <si>
+    <t>abcv</t>
+  </si>
+  <si>
+    <t>Verify user can review product successul with valid information</t>
+  </si>
+  <si>
+    <t>S a m p l e</t>
+  </si>
+  <si>
+    <t>Verify user can't review product successul with empty title</t>
+  </si>
+  <si>
+    <t>Verify user can't review product successul with empty comment</t>
+  </si>
+  <si>
+    <t>Verify user can't review product successul with all empty requirement field</t>
+  </si>
+  <si>
+    <t>Verify user can't review product successul with invalid information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify user can add quantity of product to cart successful from product’s quickview popup </t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Verify user can see result with valid information with valid keywork</t>
+  </si>
+  <si>
+    <t>Verify user can create account with empty first name</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -34,7 +904,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,14 +912,130 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -349,36 +1335,3507 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="53.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C2" r:id="rId6"/>
+    <hyperlink ref="D2" r:id="rId7"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="70.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId3"/>
+    <hyperlink ref="D4" r:id="rId4"/>
+    <hyperlink ref="C5" r:id="rId5"/>
+    <hyperlink ref="C6" r:id="rId6"/>
+    <hyperlink ref="C7" r:id="rId7"/>
+    <hyperlink ref="C8" r:id="rId8"/>
+    <hyperlink ref="D8" r:id="rId9"/>
+    <hyperlink ref="C9" r:id="rId10"/>
+    <hyperlink ref="C11" r:id="rId11"/>
+    <hyperlink ref="C10" r:id="rId12"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E5" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="61.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="F3" s="17"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>215</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="25.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" display="n.gh.i.e.m.th.u.th.uy.19.12@gmail.com"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3" display="thuy_nghiem@c.tv_vn.com"/>
+    <hyperlink ref="C3" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
+    <hyperlink ref="D4" r:id="rId4"/>
+    <hyperlink ref="C4" r:id="rId5"/>
+    <hyperlink ref="C3" r:id="rId6"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>272</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="64" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="64.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="78" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="E6" r:id="rId3"/>
+    <hyperlink ref="E7" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F6" sqref="A1:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.85546875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="35.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.140625" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="79" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.5703125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="72.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M20" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="32">
+        <v>123</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K21" s="32"/>
+      <c r="L21" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M21" s="32"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="32">
+        <v>12343</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K22" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M22" s="32"/>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="32">
+        <v>12343</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M23" s="32"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" s="32">
+        <v>12343</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K24" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M24" s="32"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" s="32">
+        <v>12343</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K25" s="32">
+        <v>12345678</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M25" s="32"/>
+    </row>
+    <row r="26" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" s="32">
+        <v>12343</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K26" s="32">
+        <v>1234567891213</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M26" s="32"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="32">
+        <v>12343</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K27" s="32"/>
+      <c r="L27" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M27" s="32"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I28" s="32">
+        <v>12343</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K28" s="32"/>
+      <c r="L28" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M28" s="32"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" s="32">
+        <v>12343</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K29" s="32"/>
+      <c r="L29" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M29" s="32"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I30" s="32">
+        <v>12343</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K30" s="32"/>
+      <c r="L30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M30" s="32"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C14" r:id="rId1"/>
+    <hyperlink ref="D15" r:id="rId2"/>
+    <hyperlink ref="I19" r:id="rId3"/>
+    <hyperlink ref="K23" r:id="rId4"/>
+    <hyperlink ref="G28" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="7" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="12" max="12" width="5.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>